--- a/data/experimental_data/reporter_assays/reporter_results_MPN_variants.xlsx
+++ b/data/experimental_data/reporter_assays/reporter_results_MPN_variants.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CBC925-8CD0-CE41-BF07-A5444B5922F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F916EA-B3FF-DA49-B217-1B36F055D072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23820" windowHeight="16240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>Standard K562</t>
   </si>
@@ -155,6 +164,15 @@
   </si>
   <si>
     <t>Average MinP</t>
+  </si>
+  <si>
+    <t>Rel_luciferase_activity</t>
+  </si>
+  <si>
+    <t>nonrisk</t>
+  </si>
+  <si>
+    <t>risk</t>
   </si>
 </sst>
 </file>
@@ -2872,8 +2890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:T13"/>
+    <sheetView zoomScale="81" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4618,4 +4636,75 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570464A7-5E5C-6A4C-9803-26F9B157BA61}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>